--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.981664900449587</v>
+        <v>1.085893666666667</v>
       </c>
       <c r="H2">
-        <v>0.981664900449587</v>
+        <v>3.257681</v>
       </c>
       <c r="I2">
-        <v>0.0263511273914709</v>
+        <v>0.02840400986010362</v>
       </c>
       <c r="J2">
-        <v>0.0263511273914709</v>
+        <v>0.02840400986010361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="N2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="O2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="P2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="Q2">
-        <v>79.46210037632783</v>
+        <v>89.94510305003844</v>
       </c>
       <c r="R2">
-        <v>79.46210037632783</v>
+        <v>809.505927450346</v>
       </c>
       <c r="S2">
-        <v>0.008249403522758296</v>
+        <v>0.008996791235844612</v>
       </c>
       <c r="T2">
-        <v>0.008249403522758296</v>
+        <v>0.008996791235844612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.981664900449587</v>
+        <v>1.085893666666667</v>
       </c>
       <c r="H3">
-        <v>0.981664900449587</v>
+        <v>3.257681</v>
       </c>
       <c r="I3">
-        <v>0.0263511273914709</v>
+        <v>0.02840400986010362</v>
       </c>
       <c r="J3">
-        <v>0.0263511273914709</v>
+        <v>0.02840400986010361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="N3">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="O3">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="P3">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="Q3">
-        <v>149.2434806168311</v>
+        <v>165.9804551585204</v>
       </c>
       <c r="R3">
-        <v>149.2434806168311</v>
+        <v>1493.824096426683</v>
       </c>
       <c r="S3">
-        <v>0.01549379753264069</v>
+        <v>0.01660225463815328</v>
       </c>
       <c r="T3">
-        <v>0.01549379753264069</v>
+        <v>0.01660225463815328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.981664900449587</v>
+        <v>1.085893666666667</v>
       </c>
       <c r="H4">
-        <v>0.981664900449587</v>
+        <v>3.257681</v>
       </c>
       <c r="I4">
-        <v>0.0263511273914709</v>
+        <v>0.02840400986010362</v>
       </c>
       <c r="J4">
-        <v>0.0263511273914709</v>
+        <v>0.02840400986010361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="N4">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="O4">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="P4">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="Q4">
-        <v>25.12076221260235</v>
+        <v>28.042528515806</v>
       </c>
       <c r="R4">
-        <v>25.12076221260235</v>
+        <v>252.382756642254</v>
       </c>
       <c r="S4">
-        <v>0.002607926336071914</v>
+        <v>0.002804963986105725</v>
       </c>
       <c r="T4">
-        <v>0.002607926336071914</v>
+        <v>0.002804963986105725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.0900732801126</v>
+        <v>33.91722166666667</v>
       </c>
       <c r="H5">
-        <v>33.0900732801126</v>
+        <v>101.751665</v>
       </c>
       <c r="I5">
-        <v>0.8882468304591621</v>
+        <v>0.887181800778517</v>
       </c>
       <c r="J5">
-        <v>0.8882468304591621</v>
+        <v>0.8871818007785169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="N5">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="O5">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="P5">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="Q5">
-        <v>2678.517611498714</v>
+        <v>2809.380044865654</v>
       </c>
       <c r="R5">
-        <v>2678.517611498714</v>
+        <v>25284.42040379089</v>
       </c>
       <c r="S5">
-        <v>0.2780718419903508</v>
+        <v>0.2810092479603119</v>
       </c>
       <c r="T5">
-        <v>0.2780718419903508</v>
+        <v>0.2810092479603119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.0900732801126</v>
+        <v>33.91722166666667</v>
       </c>
       <c r="H6">
-        <v>33.0900732801126</v>
+        <v>101.751665</v>
       </c>
       <c r="I6">
-        <v>0.8882468304591621</v>
+        <v>0.887181800778517</v>
       </c>
       <c r="J6">
-        <v>0.8882468304591621</v>
+        <v>0.8871818007785169</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="N6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="O6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="P6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="Q6">
-        <v>5030.71639612281</v>
+        <v>5184.297563155289</v>
       </c>
       <c r="R6">
-        <v>5030.71639612281</v>
+        <v>46658.6780683976</v>
       </c>
       <c r="S6">
-        <v>0.5222667078220928</v>
+        <v>0.5185612256651492</v>
       </c>
       <c r="T6">
-        <v>0.5222667078220928</v>
+        <v>0.5185612256651492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.0900732801126</v>
+        <v>33.91722166666667</v>
       </c>
       <c r="H7">
-        <v>33.0900732801126</v>
+        <v>101.751665</v>
       </c>
       <c r="I7">
-        <v>0.8882468304591621</v>
+        <v>0.887181800778517</v>
       </c>
       <c r="J7">
-        <v>0.8882468304591621</v>
+        <v>0.8871818007785169</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="N7">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="O7">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="P7">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="Q7">
-        <v>846.7735396127507</v>
+        <v>875.89115302979</v>
       </c>
       <c r="R7">
-        <v>846.7735396127507</v>
+        <v>7883.020377268109</v>
       </c>
       <c r="S7">
-        <v>0.08790828064671842</v>
+        <v>0.08761132715305592</v>
       </c>
       <c r="T7">
-        <v>0.08790828064671842</v>
+        <v>0.08761132715305592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.18150286169104</v>
+        <v>3.227179333333333</v>
       </c>
       <c r="H8">
-        <v>3.18150286169104</v>
+        <v>9.681538</v>
       </c>
       <c r="I8">
-        <v>0.08540204214936704</v>
+        <v>0.08441418936137941</v>
       </c>
       <c r="J8">
-        <v>0.08540204214936704</v>
+        <v>0.0844141893613794</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="N8">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="O8">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="P8">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="Q8">
-        <v>257.5307517132223</v>
+        <v>267.3088411949675</v>
       </c>
       <c r="R8">
-        <v>257.5307517132223</v>
+        <v>2405.779570754707</v>
       </c>
       <c r="S8">
-        <v>0.02673570268518273</v>
+        <v>0.0267376628429538</v>
       </c>
       <c r="T8">
-        <v>0.02673570268518273</v>
+        <v>0.0267376628429538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.18150286169104</v>
+        <v>3.227179333333333</v>
       </c>
       <c r="H9">
-        <v>3.18150286169104</v>
+        <v>9.681538</v>
       </c>
       <c r="I9">
-        <v>0.08540204214936704</v>
+        <v>0.08441418936137941</v>
       </c>
       <c r="J9">
-        <v>0.08540204214936704</v>
+        <v>0.0844141893613794</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="N9">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="O9">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="P9">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="Q9">
-        <v>483.6870101535869</v>
+        <v>493.2791405525927</v>
       </c>
       <c r="R9">
-        <v>483.6870101535869</v>
+        <v>4439.512264973334</v>
       </c>
       <c r="S9">
-        <v>0.05021424435770524</v>
+        <v>0.04934042319212876</v>
       </c>
       <c r="T9">
-        <v>0.05021424435770524</v>
+        <v>0.04934042319212877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.18150286169104</v>
+        <v>3.227179333333333</v>
       </c>
       <c r="H10">
-        <v>3.18150286169104</v>
+        <v>9.681538</v>
       </c>
       <c r="I10">
-        <v>0.08540204214936704</v>
+        <v>0.08441418936137941</v>
       </c>
       <c r="J10">
-        <v>0.08540204214936704</v>
+        <v>0.0844141893613794</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="N10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="O10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="P10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="Q10">
-        <v>81.41452019997008</v>
+        <v>83.33989897778798</v>
       </c>
       <c r="R10">
-        <v>81.41452019997008</v>
+        <v>750.0590908000919</v>
       </c>
       <c r="S10">
-        <v>0.008452095106479077</v>
+        <v>0.008336103326296848</v>
       </c>
       <c r="T10">
-        <v>0.008452095106479077</v>
+        <v>0.008336103326296848</v>
       </c>
     </row>
   </sheetData>
